--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3678251.590722503</v>
+        <v>3672407.455717375</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256421</v>
+        <v>6239134.53325642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069174</v>
+        <v>840694.9721069175</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>35.37377365617564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,13 +794,13 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>166.0695714233303</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.5320230099101</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>17.34492080045963</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>3.067711762009546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>324.196137228266</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>19.63560877676122</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>51.75143860199483</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.89631287737662</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>163.1983534808145</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040295</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>218.808826481063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2134,7 +2134,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T20" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
         <v>251.0030623803221</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>38.69509052836993</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>79.4977893501253</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.5924060790427</v>
       </c>
       <c r="V25" t="n">
-        <v>141.8195536282576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>64.2116880053572</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>74.69637495512289</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.49352330187587</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>67.57137291818051</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>107.4875001652977</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367017</v>
       </c>
       <c r="U35" t="n">
         <v>251.0030623803221</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>105.9527889544333</v>
+        <v>159.6461437356202</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.7401400319056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>68.7247034517376</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>139.631800342706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002738</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>130.4482050673222</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>106.109387701864</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.723949158869</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888755</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.224209387568</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.8183646524923</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>382.8183646524923</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524923</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524923</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8183646524923</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8183646524923</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.8183646524923</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.295728843236</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.333211902824</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="D5" t="n">
-        <v>1688.333211902824</v>
+        <v>875.2151645410881</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>489.4269119428439</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843236</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5125998356232</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>695.6133663105516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>468.3051789791533</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>468.3051789791533</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>468.3051789791533</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>468.3051789791533</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>468.3051789791533</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>247.5125998356232</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.7314582348853</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>530.7314582348853</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>530.7314582348853</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>530.7314582348853</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.7314582348853</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C11" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K11" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1441.670768772048</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M11" t="n">
-        <v>2403.075645719636</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N11" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O11" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5074,19 +5074,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U11" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439724</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.9379633372129</v>
+        <v>1122.605169488108</v>
       </c>
       <c r="C13" t="n">
-        <v>341.001780409306</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D13" t="n">
-        <v>341.001780409306</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E13" t="n">
-        <v>341.001780409306</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F13" t="n">
-        <v>341.001780409306</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G13" t="n">
         <v>341.001780409306</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1745.585970011804</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.585970011804</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.48066555383</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V13" t="n">
-        <v>1201.796177347943</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="W13" t="n">
-        <v>912.3790073109827</v>
+        <v>1623.661479935711</v>
       </c>
       <c r="X13" t="n">
-        <v>912.3790073109827</v>
+        <v>1395.671929037693</v>
       </c>
       <c r="Y13" t="n">
-        <v>691.5864281674526</v>
+        <v>1174.879349894163</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L14" t="n">
-        <v>1543.411851794608</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.816728742196</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N14" t="n">
-        <v>3034.172689002972</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5314,13 +5314,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1821.238811302083</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T16" t="n">
-        <v>1599.281251821626</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
-        <v>1599.281251821626</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>1344.596763615739</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>1055.179593578779</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>890.3327718809862</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>669.5401927374561</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K17" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1354.237307536703</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M17" t="n">
-        <v>2315.642184484292</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N17" t="n">
-        <v>3277.971599912932</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5554,10 +5554,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.944550247459</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>638.0083673195521</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>487.8917279072164</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1913.078649972671</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>1658.394161766784</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>1437.375145119246</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.385594221229</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.5930150776987</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5755,25 +5755,25 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L20" t="n">
-        <v>1354.237307536703</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M20" t="n">
-        <v>1870.623786326387</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>975.990656576427</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="C22" t="n">
-        <v>807.0544736485201</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="D22" t="n">
-        <v>656.9378342361844</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="E22" t="n">
-        <v>509.0247406537912</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F22" t="n">
-        <v>362.1347931558809</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
         <v>95.71766921524075</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1832.777852649313</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1640.313160510571</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>1640.313160510571</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U22" t="n">
-        <v>1640.313160510571</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.628672304684</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.628672304684</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.639121406667</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.639121406667</v>
+        <v>631.0895572303031</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
@@ -5995,16 +5995,16 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M23" t="n">
-        <v>2390.423994664099</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N23" t="n">
-        <v>3352.75341009274</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O23" t="n">
-        <v>3839.273971351772</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
         <v>4220.007013476401</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>825.5985825778617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C25" t="n">
-        <v>656.6623996499549</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D25" t="n">
-        <v>656.6623996499549</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E25" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T25" t="n">
-        <v>1599.281251821626</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U25" t="n">
-        <v>1599.281251821626</v>
+        <v>1437.997447988131</v>
       </c>
       <c r="V25" t="n">
-        <v>1456.029177449649</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W25" t="n">
-        <v>1456.029177449649</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X25" t="n">
-        <v>1228.039626551631</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y25" t="n">
-        <v>1007.247047408101</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
         <v>1266.317301993267</v>
@@ -6229,19 +6229,19 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1200.738998111603</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M26" t="n">
-        <v>2162.143875059191</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N26" t="n">
-        <v>3124.473290487832</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>3839.273971351772</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
         <v>4220.007013476401</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3161.309648047117</v>
+        <v>962.9247759646606</v>
       </c>
       <c r="C27" t="n">
-        <v>2986.85661876599</v>
+        <v>788.4717466835336</v>
       </c>
       <c r="D27" t="n">
-        <v>2837.922209104739</v>
+        <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>2678.684754099283</v>
+        <v>480.2998820168268</v>
       </c>
       <c r="F27" t="n">
-        <v>2532.150196126168</v>
+        <v>333.7653240437118</v>
       </c>
       <c r="G27" t="n">
-        <v>2395.733791064222</v>
+        <v>197.3489189817663</v>
       </c>
       <c r="H27" t="n">
-        <v>2304.717083641436</v>
+        <v>106.3322115589798</v>
       </c>
       <c r="I27" t="n">
-        <v>2294.102541297696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>2415.018709809053</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K27" t="n">
-        <v>2644.846627957309</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L27" t="n">
-        <v>3000.201167589511</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M27" t="n">
-        <v>3434.240022521747</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N27" t="n">
-        <v>3894.175239336866</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>4292.706311885854</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P27" t="n">
-        <v>4593.229566483135</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
-        <v>4744.202207125711</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R27" t="n">
-        <v>4785.883460762037</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="S27" t="n">
-        <v>4655.455459218338</v>
+        <v>2457.070587135881</v>
       </c>
       <c r="T27" t="n">
-        <v>4462.597602764158</v>
+        <v>2264.212730681702</v>
       </c>
       <c r="U27" t="n">
-        <v>4234.526248997616</v>
+        <v>2036.14137691516</v>
       </c>
       <c r="V27" t="n">
-        <v>3999.374140765873</v>
+        <v>1800.989268683417</v>
       </c>
       <c r="W27" t="n">
-        <v>3745.136784037672</v>
+        <v>1546.751911955215</v>
       </c>
       <c r="X27" t="n">
-        <v>3537.285283832139</v>
+        <v>1338.900411749682</v>
       </c>
       <c r="Y27" t="n">
-        <v>3329.524985067185</v>
+        <v>1131.140112984729</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.609596982064</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>573.609596982064</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>573.609596982064</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>573.609596982064</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
@@ -6426,10 +6426,10 @@
         <v>573.609596982064</v>
       </c>
       <c r="X28" t="n">
-        <v>573.609596982064</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.609596982064</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
         <v>440.1593205155743</v>
@@ -6469,10 +6469,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.642956557056</v>
+        <v>1676.497326176646</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.02943534674</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N29" t="n">
         <v>2722.239765227106</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>216.633837726596</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K30" t="n">
-        <v>446.4617558748525</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L30" t="n">
-        <v>801.8162955070538</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N30" t="n">
-        <v>1695.790367254408</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P30" t="n">
-        <v>2394.844694400678</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R30" t="n">
         <v>2587.498588679581</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6654,19 +6654,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.4598847546351</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>918.6120443066563</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941649</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M32" t="n">
-        <v>2288.68291164154</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.01232707018</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6779,19 +6779,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439724</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.9715812538069</v>
+        <v>561.6604390533937</v>
       </c>
       <c r="C34" t="n">
-        <v>95.71766921524075</v>
+        <v>392.7242561254868</v>
       </c>
       <c r="D34" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="E34" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682885</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V34" t="n">
-        <v>863.0267670190245</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W34" t="n">
-        <v>573.609596982064</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X34" t="n">
-        <v>345.6200460840466</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y34" t="n">
-        <v>345.6200460840466</v>
+        <v>743.3089038836334</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591511</v>
@@ -6928,37 +6928,37 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K35" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6967,7 +6967,7 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902181</v>
       </c>
       <c r="U35" t="n">
         <v>4213.370243053371</v>
@@ -7016,28 +7016,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L36" t="n">
-        <v>801.8162955070538</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M36" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N36" t="n">
-        <v>1695.790367254408</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P36" t="n">
-        <v>2394.844694400678</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R36" t="n">
         <v>2587.498588679581</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.1007090785166</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>660.1645261506097</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T37" t="n">
-        <v>1714.215792156191</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U37" t="n">
-        <v>1714.215792156191</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>1459.531303950304</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>1459.531303950304</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>1231.541753052286</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>1010.749173908756</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,16 +7174,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1243.523871008782</v>
+        <v>1676.497326176646</v>
       </c>
       <c r="M38" t="n">
-        <v>1759.910349798466</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N38" t="n">
         <v>2722.239765227106</v>
@@ -7207,19 +7207,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V38" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="39">
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S40" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.667305611105</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
         <v>440.1593205155743</v>
@@ -7414,22 +7414,22 @@
         <v>443.7150397139486</v>
       </c>
       <c r="K41" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.223600516549</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M41" t="n">
-        <v>2223.623655967287</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N41" t="n">
-        <v>3185.953071395928</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O41" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
         <v>4667.940766252041</v>
@@ -7490,16 +7490,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N42" t="n">
         <v>1737.471620890736</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>828.2940851879507</v>
+        <v>709.5735326357868</v>
       </c>
       <c r="C43" t="n">
-        <v>687.2518626195608</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D43" t="n">
-        <v>537.1352232072251</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E43" t="n">
-        <v>389.222129624832</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F43" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
         <v>95.71766921524075</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682885</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V43" t="n">
-        <v>1117.711255224911</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W43" t="n">
-        <v>828.2940851879507</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X43" t="n">
-        <v>828.2940851879507</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y43" t="n">
-        <v>828.2940851879507</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1555.456794784648</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2071.843273574331</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N44" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
         <v>3520.693250262004</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>216.633837726596</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K45" t="n">
-        <v>446.4617558748525</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L45" t="n">
-        <v>801.8162955070538</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M45" t="n">
-        <v>1235.85515043929</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N45" t="n">
-        <v>1695.790367254408</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.321439803397</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P45" t="n">
-        <v>2394.844694400678</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.2682359537999</v>
+        <v>227.4835329196067</v>
       </c>
       <c r="C46" t="n">
-        <v>558.2682359537999</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>558.2682359537999</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
         <v>95.71766921524075</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353473</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.5510938955</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V46" t="n">
-        <v>954.866605689613</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4494356526525</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X46" t="n">
-        <v>558.2682359537999</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.2682359537999</v>
+        <v>409.1319977498464</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>88.31662751044888</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8710,10 +8710,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>21.98878306823372</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>194.3363706804249</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>353.5685925326928</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>259.7987504703942</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,19 +9643,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>90.70213529832102</v>
       </c>
       <c r="M23" t="n">
-        <v>355.9541003205646</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O26" t="n">
-        <v>230.5859793988966</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>32.49982154847248</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>156.4185551713031</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>156.4185551713026</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>32.4998215484714</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>4.620730212329931</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>90.70213529832085</v>
       </c>
       <c r="N35" t="n">
-        <v>120.1689464528309</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>32.4998215484714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>212.3136585025573</v>
+        <v>156.4185551713031</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -11062,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>93.95310773843846</v>
+        <v>53.84110201061571</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>34.15539214908222</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>32.4998215484714</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>128.0805415799425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
-        <v>115.6437323399776</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>62.51130190822269</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>67.71417185552804</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>128.5517305702579</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.42365093375734</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
         <v>190.5400452173542</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>35.62184533435072</v>
       </c>
       <c r="V25" t="n">
-        <v>110.3180896955704</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>81.20936001757404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>151.0132804339142</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>70.5765270997973</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.67544818044732</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>111.097153186797</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>113.7851949312188</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>151.0132804339145</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>27.61502075592185</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
         <v>97.68290229956054</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>257.5311158333661</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>36.79861603130558</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
@@ -26073,7 +26073,7 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>119.6002676871731</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673324.764501186</v>
+        <v>673324.7645011859</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>733542.2088178318</v>
+        <v>733542.2088178323</v>
       </c>
       <c r="F2" t="n">
-        <v>733542.2088178321</v>
+        <v>733542.2088178323</v>
       </c>
       <c r="G2" t="n">
         <v>733542.2088178322</v>
       </c>
       <c r="H2" t="n">
+        <v>733542.2088178322</v>
+      </c>
+      <c r="I2" t="n">
         <v>733542.2088178321</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>733542.2088178323</v>
+      </c>
+      <c r="K2" t="n">
         <v>733542.2088178322</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>733542.2088178321</v>
+      </c>
+      <c r="M2" t="n">
         <v>733542.2088178322</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>733542.2088178319</v>
-      </c>
-      <c r="L2" t="n">
-        <v>733542.2088178319</v>
-      </c>
-      <c r="M2" t="n">
-        <v>733542.2088178317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>733542.2088178322</v>
       </c>
       <c r="O2" t="n">
         <v>733542.2088178319</v>
       </c>
       <c r="P2" t="n">
-        <v>733542.2088178321</v>
+        <v>733542.2088178324</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518284</v>
+        <v>708251.0967518283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>19876.24241659314</v>
@@ -26432,16 +26432,16 @@
         <v>19876.24241659315</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="I4" t="n">
         <v>19876.24241659315</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659314</v>
       </c>
       <c r="K4" t="n">
         <v>19876.24241659314</v>
@@ -26450,7 +26450,7 @@
         <v>19876.24241659315</v>
       </c>
       <c r="M4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="N4" t="n">
         <v>19876.24241659314</v>
@@ -26459,7 +26459,7 @@
         <v>19876.24241659315</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659314</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061971</v>
+        <v>-96712.00701061953</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.8722039247</v>
+        <v>493255.872203925</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039249</v>
       </c>
       <c r="E6" t="n">
-        <v>-90552.84374265897</v>
+        <v>-91253.42288608082</v>
       </c>
       <c r="F6" t="n">
-        <v>617698.2530091697</v>
+        <v>616997.6738657475</v>
       </c>
       <c r="G6" t="n">
-        <v>617698.2530091698</v>
+        <v>616997.6738657474</v>
       </c>
       <c r="H6" t="n">
-        <v>617698.2530091697</v>
+        <v>616997.6738657474</v>
       </c>
       <c r="I6" t="n">
-        <v>617698.2530091698</v>
+        <v>616997.6738657473</v>
       </c>
       <c r="J6" t="n">
-        <v>441275.0338165771</v>
+        <v>440574.4546731545</v>
       </c>
       <c r="K6" t="n">
-        <v>617698.2530091696</v>
+        <v>616997.6738657474</v>
       </c>
       <c r="L6" t="n">
-        <v>617698.2530091696</v>
+        <v>616997.6738657473</v>
       </c>
       <c r="M6" t="n">
-        <v>487568.0130397599</v>
+        <v>486867.433896338</v>
       </c>
       <c r="N6" t="n">
-        <v>617698.2530091698</v>
+        <v>616997.6738657472</v>
       </c>
       <c r="O6" t="n">
-        <v>617698.2530091696</v>
+        <v>616997.6738657472</v>
       </c>
       <c r="P6" t="n">
-        <v>617698.2530091697</v>
+        <v>616997.6738657476</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545549</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>334.3573270222934</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>120.4534269132607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.39834706235166</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>389.5311249412518</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>209.0778271880094</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>68.08019533676973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.04180142778762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>206.0740466122759</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K11" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>528.3421459246377</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M11" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O11" t="n">
         <v>872.235091625404</v>
@@ -35430,10 +35430,10 @@
         <v>706.3775386004011</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709662</v>
@@ -35503,7 +35503,7 @@
         <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>477.1587368871745</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
         <v>303.5588430275572</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L14" t="n">
-        <v>462.0143014824226</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
         <v>971.116037320796</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626587</v>
+        <v>685.7712810430836</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585826</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K17" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M17" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O17" t="n">
-        <v>845.0035028953515</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279635</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
-        <v>794.5017406327945</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L23" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125099</v>
       </c>
       <c r="M23" t="n">
-        <v>877.5566041485281</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q23" t="n">
         <v>452.4583361370097</v>
@@ -36597,22 +36597,22 @@
         <v>351.5124954532402</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
         <v>440.0255184141889</v>
       </c>
       <c r="M26" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743844</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O26" t="n">
-        <v>722.0208897615553</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
         <v>452.4583361370097</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>122.137543950865</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709662</v>
@@ -36697,7 +36697,7 @@
         <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141889</v>
+        <v>596.444073585492</v>
       </c>
       <c r="M29" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N29" t="n">
-        <v>691.1215453337029</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O29" t="n">
         <v>872.235091625404</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>122.1375439508639</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709662</v>
@@ -36934,7 +36934,7 @@
         <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
-        <v>526.2232340402934</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N32" t="n">
         <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P32" t="n">
         <v>384.5788304289184</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709662</v>
@@ -37162,7 +37162,7 @@
         <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>477.1587368871745</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
         <v>303.5588430275572</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K35" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279635</v>
+        <v>612.3046391262843</v>
       </c>
       <c r="N35" t="n">
-        <v>654.8719366152312</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
         <v>872.235091625404</v>
@@ -37326,10 +37326,10 @@
         <v>706.3775386004011</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
-        <v>391.4438009749373</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
         <v>438.4230857901372</v>
@@ -37408,7 +37408,7 @@
         <v>152.4976168106823</v>
       </c>
       <c r="R36" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L38" t="n">
-        <v>652.3391769167462</v>
+        <v>596.444073585492</v>
       </c>
       <c r="M38" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O38" t="n">
         <v>872.235091625404</v>
@@ -37782,25 +37782,25 @@
         <v>351.5124954532402</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
         <v>857.6867329646393</v>
       </c>
       <c r="M41" t="n">
-        <v>615.5556115664019</v>
+        <v>575.4436058385792</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O41" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R41" t="n">
         <v>119.1340348585826</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709662</v>
@@ -37870,7 +37870,7 @@
         <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>539.1831250347803</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
         <v>402.5566389383721</v>
@@ -38022,16 +38022,16 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L44" t="n">
-        <v>474.1809105632711</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M44" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
         <v>706.3775386004011</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>122.1375439508639</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709662</v>
@@ -38119,7 +38119,7 @@
         <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3672407.455717375</v>
+        <v>3675958.015504766</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.53325642</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069175</v>
+        <v>840694.972106918</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7925205.364652085</v>
+        <v>7925205.364652086</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>325.0337890609953</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475058</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>17.34492080045963</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>57.16277487613897</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.85112090809152</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.75143860199483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.17056430257593</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
         <v>251.0030623803221</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.4489151671341</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4482050673223</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212043</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673223</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>38.69509052836993</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
         <v>286.2142514133935</v>
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.5924060790427</v>
+        <v>232.9600373666081</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356193</v>
       </c>
       <c r="U28" t="n">
         <v>286.2142514133935</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>74.69637495512289</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.13675328819186</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>226.1224112633616</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.4875001652977</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367017</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
         <v>251.0030623803221</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>61.1903284296938</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>159.6461437356202</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>119.7401400319047</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>68.7247034517376</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>28.68313558002738</v>
+        <v>159.6709657951592</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>130.4482050673222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>120.0625357052036</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.480863147839</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.480863147839</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>875.2151645410881</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>489.4269119428439</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4795,10 +4795,10 @@
         <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6410837477296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>138.6410837477296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4901,25 +4901,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521276</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
         <v>1086.017693327009</v>
@@ -5050,10 +5050,10 @@
         <v>1521.642956557056</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5105,13 +5105,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.605169488108</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C13" t="n">
-        <v>953.668986560201</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D13" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
         <v>1913.078649972671</v>
@@ -5229,22 +5229,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972671</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U13" t="n">
-        <v>1913.078649972671</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V13" t="n">
-        <v>1913.078649972671</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W13" t="n">
-        <v>1623.661479935711</v>
+        <v>857.914127791393</v>
       </c>
       <c r="X13" t="n">
-        <v>1395.671929037693</v>
+        <v>629.9245768933756</v>
       </c>
       <c r="Y13" t="n">
-        <v>1174.879349894163</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,25 +5278,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1446.817951496196</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2408.222828443784</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
-        <v>3370.552243872425</v>
+        <v>2980.869998012461</v>
       </c>
       <c r="O14" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5342,13 +5342,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M16" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972671</v>
+        <v>1844.948432632131</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.312786268305</v>
+        <v>1844.948432632131</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.355226787849</v>
+        <v>1622.990873151674</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.249922329876</v>
+        <v>1333.885568693701</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.565434123989</v>
+        <v>1079.201080487814</v>
       </c>
       <c r="W16" t="n">
-        <v>726.1482640870279</v>
+        <v>789.7839104508535</v>
       </c>
       <c r="X16" t="n">
-        <v>498.1587131890105</v>
+        <v>561.7943595528361</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.3661340454805</v>
+        <v>341.001780409306</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1611.438070502394</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M17" t="n">
-        <v>2127.824549292078</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N17" t="n">
-        <v>2657.180509552854</v>
+        <v>2980.869998012461</v>
       </c>
       <c r="O17" t="n">
         <v>3520.693250262004</v>
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5594,22 +5594,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5673,52 +5673,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O19" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W19" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X19" t="n">
-        <v>498.1587131890105</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.7080858612032</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>1717.125476901286</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418659</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N21" t="n">
         <v>1663.615543921421</v>
       </c>
       <c r="O21" t="n">
-        <v>2062.14661647041</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P21" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>449.4410924000633</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
         <v>95.71766921524075</v>
@@ -5910,25 +5910,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M22" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O22" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
         <v>1913.078649972671</v>
@@ -5937,25 +5937,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T22" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U22" t="n">
-        <v>1623.973345514698</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V22" t="n">
-        <v>1369.288857308811</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W22" t="n">
-        <v>1079.871687271851</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X22" t="n">
-        <v>851.8821363738332</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y22" t="n">
-        <v>631.0895572303031</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1611.438070502394</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M23" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N23" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O23" t="n">
         <v>3520.693250262004</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.4651948734965</v>
+        <v>492.417000492354</v>
       </c>
       <c r="C25" t="n">
-        <v>263.4651948734965</v>
+        <v>492.417000492354</v>
       </c>
       <c r="D25" t="n">
-        <v>263.4651948734965</v>
+        <v>342.3003610800183</v>
       </c>
       <c r="E25" t="n">
-        <v>263.4651948734965</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="F25" t="n">
-        <v>263.4651948734965</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M25" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O25" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
         <v>1913.078649972671</v>
@@ -6174,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T25" t="n">
-        <v>1691.121090492215</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U25" t="n">
-        <v>1437.997447988131</v>
+        <v>1485.300788776749</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.312959782244</v>
+        <v>1230.616300570862</v>
       </c>
       <c r="W25" t="n">
-        <v>893.8957897452837</v>
+        <v>941.1991305339014</v>
       </c>
       <c r="X25" t="n">
-        <v>665.9062388472663</v>
+        <v>713.2095796358841</v>
       </c>
       <c r="Y25" t="n">
-        <v>445.1136597037362</v>
+        <v>492.417000492354</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O26" t="n">
         <v>3520.693250262004</v>
@@ -6262,13 +6262,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
         <v>2765.933610202796</v>
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,22 +6305,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
         <v>2436.525948037006</v>
@@ -6384,46 +6384,46 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M28" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.816559682885</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>863.0267670190245</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>573.609596982064</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
         <v>498.1587131890105</v>
@@ -6454,37 +6454,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1676.497326176646</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2192.88380496633</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N29" t="n">
-        <v>2722.239765227106</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.752505936256</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6527,13 +6527,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
@@ -6542,22 +6542,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
         <v>2436.525948037006</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>449.4410924000624</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>449.4410924000624</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>299.3244529877267</v>
       </c>
       <c r="E31" t="n">
-        <v>95.71766921524075</v>
+        <v>151.4113594053335</v>
       </c>
       <c r="F31" t="n">
-        <v>95.71766921524075</v>
+        <v>151.4113594053335</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>151.4113594053335</v>
       </c>
       <c r="H31" t="n">
         <v>95.71766921524075</v>
@@ -6621,25 +6621,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M31" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
         <v>1913.078649972671</v>
@@ -6648,25 +6648,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353473</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.249922329876</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.565434123989</v>
+        <v>1369.28885730881</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1482640870279</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X31" t="n">
-        <v>498.1587131890105</v>
+        <v>851.8821363738323</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>631.0895572303021</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O32" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6779,22 +6779,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
         <v>2436.525948037006</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.6604390533937</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>392.7242561254868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6858,25 +6858,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M34" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
         <v>1913.078649972671</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U34" t="n">
-        <v>1623.973345514698</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V34" t="n">
-        <v>1369.288857308811</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W34" t="n">
-        <v>1079.871687271851</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X34" t="n">
-        <v>851.8821363738332</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.3089038836334</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036606</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155751</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K35" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M35" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O35" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6967,22 +6967,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7001,13 +7001,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
@@ -7016,22 +7016,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
         <v>2436.525948037006</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>825.5985825778617</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>656.6623996499549</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M37" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
         <v>1913.078649972671</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.355226787849</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.249922329876</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.565434123989</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W37" t="n">
-        <v>726.1482640870279</v>
+        <v>887.406995133108</v>
       </c>
       <c r="X37" t="n">
-        <v>498.1587131890105</v>
+        <v>887.406995133108</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.3661340454805</v>
+        <v>887.406995133108</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C38" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L38" t="n">
-        <v>1676.497326176646</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M38" t="n">
-        <v>2192.88380496633</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.239765227106</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.752505936256</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7207,19 +7207,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U38" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="39">
@@ -7238,13 +7238,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
@@ -7253,22 +7253,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
         <v>2436.525948037006</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111041</v>
       </c>
       <c r="C40" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111041</v>
       </c>
       <c r="D40" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111041</v>
       </c>
       <c r="E40" t="n">
-        <v>95.71766921524075</v>
+        <v>216.6673056111041</v>
       </c>
       <c r="F40" t="n">
         <v>95.71766921524075</v>
@@ -7332,52 +7332,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M40" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.565434123989</v>
+        <v>954.8666056896121</v>
       </c>
       <c r="W40" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526516</v>
       </c>
       <c r="X40" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546342</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.3661340454805</v>
+        <v>216.6673056111041</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,19 +7411,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.816728742196</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N41" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O41" t="n">
         <v>3520.693250262004</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,22 +7490,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.5735326357868</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C43" t="n">
-        <v>540.6373497078799</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D43" t="n">
-        <v>390.5207102955442</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E43" t="n">
-        <v>242.6076167131511</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F43" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G43" t="n">
         <v>95.71766921524075</v>
@@ -7569,52 +7569,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M43" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972671</v>
+        <v>1599.281251821625</v>
       </c>
       <c r="U43" t="n">
-        <v>1884.105785750422</v>
+        <v>1437.997447988131</v>
       </c>
       <c r="V43" t="n">
-        <v>1629.421297544535</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W43" t="n">
-        <v>1340.004127507574</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X43" t="n">
-        <v>1112.014576609557</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.2219974660266</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.02943534674</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,22 +7727,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
         <v>2436.525948037006</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>227.4835329196067</v>
+        <v>385.9291407342624</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>216.9929578063555</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>216.9929578063555</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>216.9929578063555</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7806,52 +7806,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492215</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="U46" t="n">
-        <v>1402.015786034242</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.331297828355</v>
+        <v>1084.98432649948</v>
       </c>
       <c r="W46" t="n">
-        <v>857.9141277913939</v>
+        <v>795.5671564625195</v>
       </c>
       <c r="X46" t="n">
-        <v>629.9245768933765</v>
+        <v>567.5776055645022</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.1319977498464</v>
+        <v>567.5776055645022</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832063</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>194.3363706804249</v>
+        <v>53.84110201061765</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70213529832102</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061765</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>414.8475478694876</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70213529832102</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>156.4185551713031</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>90.70213529832085</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>156.4185551713031</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>53.84110201061571</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>90.70213529832063</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>74.6020979488041</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.0805415799425</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.4140890495189</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,10 +23670,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>23.47252511674859</v>
       </c>
       <c r="S16" t="n">
-        <v>60.09184015003191</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003191</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>128.5517305702579</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>35.62184533435072</v>
+        <v>53.25421404678534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.09184015003282</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0132804339142</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>90.01161449437214</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>60.09184015003183</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.097153186797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>118.6416517522435</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>60.09184015003191</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>25.6809079910265</v>
       </c>
       <c r="G40" t="n">
         <v>166.0700504016732</v>
@@ -25569,7 +25569,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>151.0132804339145</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>257.5311158333661</v>
+        <v>126.5432856182343</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>36.79861603130558</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>25.35851231772763</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.7645011862</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.7645011861</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.7645011861</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673324.7645011859</v>
+        <v>673324.764501186</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>733542.2088178323</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="F2" t="n">
-        <v>733542.2088178323</v>
+        <v>733542.2088178318</v>
       </c>
       <c r="G2" t="n">
-        <v>733542.2088178322</v>
+        <v>733542.2088178316</v>
       </c>
       <c r="H2" t="n">
-        <v>733542.2088178322</v>
+        <v>733542.2088178319</v>
       </c>
       <c r="I2" t="n">
-        <v>733542.2088178321</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="J2" t="n">
-        <v>733542.2088178323</v>
+        <v>733542.2088178318</v>
       </c>
       <c r="K2" t="n">
-        <v>733542.2088178322</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="L2" t="n">
-        <v>733542.2088178321</v>
+        <v>733542.2088178318</v>
       </c>
       <c r="M2" t="n">
-        <v>733542.2088178322</v>
+        <v>733542.2088178315</v>
       </c>
       <c r="N2" t="n">
-        <v>733542.2088178319</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="O2" t="n">
-        <v>733542.2088178319</v>
+        <v>733542.2088178315</v>
       </c>
       <c r="P2" t="n">
-        <v>733542.2088178324</v>
+        <v>733542.2088178312</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="F4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="I4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="L4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="M4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="O4" t="n">
-        <v>19876.24241659315</v>
+        <v>19876.24241659318</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659318</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061953</v>
+        <v>-96712.00701061968</v>
       </c>
       <c r="C6" t="n">
+        <v>493255.8722039248</v>
+      </c>
+      <c r="D6" t="n">
         <v>493255.872203925</v>
       </c>
-      <c r="D6" t="n">
-        <v>493255.8722039249</v>
-      </c>
       <c r="E6" t="n">
-        <v>-91253.42288608082</v>
+        <v>-90622.90165700088</v>
       </c>
       <c r="F6" t="n">
-        <v>616997.6738657475</v>
+        <v>617628.1950948272</v>
       </c>
       <c r="G6" t="n">
-        <v>616997.6738657474</v>
+        <v>617628.195094827</v>
       </c>
       <c r="H6" t="n">
-        <v>616997.6738657474</v>
+        <v>617628.1950948273</v>
       </c>
       <c r="I6" t="n">
-        <v>616997.6738657473</v>
+        <v>617628.1950948271</v>
       </c>
       <c r="J6" t="n">
-        <v>440574.4546731545</v>
+        <v>441204.9759022342</v>
       </c>
       <c r="K6" t="n">
-        <v>616997.6738657474</v>
+        <v>617628.1950948271</v>
       </c>
       <c r="L6" t="n">
-        <v>616997.6738657473</v>
+        <v>617628.1950948272</v>
       </c>
       <c r="M6" t="n">
-        <v>486867.433896338</v>
+        <v>487497.9551254174</v>
       </c>
       <c r="N6" t="n">
-        <v>616997.6738657472</v>
+        <v>617628.1950948271</v>
       </c>
       <c r="O6" t="n">
-        <v>616997.6738657472</v>
+        <v>617628.1950948269</v>
       </c>
       <c r="P6" t="n">
-        <v>616997.6738657476</v>
+        <v>617628.1950948266</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.4987572731068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>81.8422566807161</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>389.5311249412518</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>292.078193841274</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>68.08019533676973</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5017245654297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N22" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U24" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N25" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U27" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N28" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U30" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N31" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U33" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N34" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U36" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N37" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U39" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N40" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U42" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N43" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168965</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111343</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U45" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N46" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328684</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141889</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N11" t="n">
-        <v>625.4051254607209</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O11" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811664</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646393</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O14" t="n">
-        <v>685.7712810430836</v>
+        <v>545.276012373276</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7276537125099</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>545.276012373276</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811664</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339471</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M20" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743844</v>
+        <v>949.5505380318874</v>
       </c>
       <c r="O20" t="n">
-        <v>751.487700916066</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L23" t="n">
-        <v>530.7276537125099</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O23" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141889</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N26" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O26" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L29" t="n">
-        <v>596.444073585492</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O29" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811664</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646393</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M32" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O32" t="n">
-        <v>751.487700916066</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141889</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M35" t="n">
-        <v>612.3046391262843</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624003</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O35" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L38" t="n">
-        <v>596.444073585492</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901624003</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O38" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560015</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532402</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M41" t="n">
-        <v>575.4436058385792</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901372</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051119</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141889</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279635</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N44" t="n">
-        <v>625.4051254607209</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O44" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901372</v>
+        <v>513.0251837389411</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859781</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383721</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275572</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
